--- a/data/trans_orig/P55S5-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P55S5-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AA1C09B-063C-457C-B4B2-2F32933B607B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA984DF6-D884-4DE0-B4F6-3EE4D98427B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{77CDF191-D58A-4643-B4CF-8E568E9E223A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8CB00B51-24EB-450A-A351-14CDD47A56C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -501,7 +501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F874B1-6AEB-4423-91D0-E6FF6340DF62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD145E1-31E6-437E-A7A8-719197A34AD7}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P55S5-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P55S5-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA984DF6-D884-4DE0-B4F6-3EE4D98427B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC622154-9B05-4066-9C34-BA6967A5014A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8CB00B51-24EB-450A-A351-14CDD47A56C3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F63116F2-4725-42A2-805D-6424ADB2FA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -501,7 +501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD145E1-31E6-437E-A7A8-719197A34AD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE0CF13-4B82-41FD-9D06-420EF5D8EBCB}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
